--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data_sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Russell 1000® Total Market Index, Index, Annual, Not Seasonally Adjusted</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>3-Month Treasury Bill: Secondary Market Rate, Percent, Annual, Not Seasonally Adjusted</t>
-  </si>
-  <si>
-    <t>Consumer Price Index for All Urban Consumers: All Items, Index 1982-1984=100, Annual, Seasonally Adjusted</t>
   </si>
   <si>
     <t xml:space="preserve">EAFE Standard (Large+Mid Cap) </t>
@@ -412,21 +409,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B8B3EA-6488-47B8-9F77-C187F9CF201D}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -441,19 +438,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1988</v>
       </c>
@@ -470,19 +464,16 @@
         <v>0.1335972746524261</v>
       </c>
       <c r="F2" s="1">
+        <v>0.28585558852621173</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.4043000000000001</v>
+      </c>
+      <c r="H2" s="1">
         <v>8.0700000000000008E-2</v>
       </c>
-      <c r="G2" s="1">
-        <v>4.4117647058823595E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.28585558852621173</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.4043000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1989</v>
       </c>
@@ -499,19 +490,16 @@
         <v>2.3066926575698421E-2</v>
       </c>
       <c r="F3" s="1">
+        <v>0.10798534798534809</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.64957630136010813</v>
+      </c>
+      <c r="H3" s="1">
         <v>7.6299999999999993E-2</v>
       </c>
-      <c r="G3" s="1">
-        <v>4.6396023198011616E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.10798534798534809</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.64957630136010813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1990</v>
       </c>
@@ -528,19 +516,16 @@
         <v>-4.3585265163543996E-2</v>
       </c>
       <c r="F4" s="1">
+        <v>-0.23194921978312621</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.10550399309302827</v>
+      </c>
+      <c r="H4" s="1">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="G4" s="1">
-        <v>6.2549485352335621E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-0.23194921978312621</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-0.10550399309302827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1991</v>
       </c>
@@ -557,19 +542,16 @@
         <v>0.3917157798622064</v>
       </c>
       <c r="F5" s="1">
+        <v>0.12495695592286515</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.59910235992471406</v>
+      </c>
+      <c r="H5" s="1">
         <v>4.07E-2</v>
       </c>
-      <c r="G5" s="1">
-        <v>2.9806259314456129E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.12495695592286515</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.59910235992471406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1992</v>
       </c>
@@ -586,19 +568,16 @@
         <v>0.17440057258737918</v>
       </c>
       <c r="F6" s="1">
+        <v>-0.11850009565716479</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.11401840953674358</v>
+      </c>
+      <c r="H6" s="1">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="G6" s="1">
-        <v>2.9667149059334541E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-0.11850009565716479</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.11401840953674358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1993</v>
       </c>
@@ -615,19 +594,16 @@
         <v>0.16698831894362609</v>
       </c>
       <c r="F7" s="1">
+        <v>0.32945568191683305</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.74838132907105903</v>
+      </c>
+      <c r="H7" s="1">
         <v>3.0600000000000002E-2</v>
       </c>
-      <c r="G7" s="1">
-        <v>2.8109627547435068E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.32945568191683305</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.74838132907105903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1994</v>
       </c>
@@ -644,19 +620,16 @@
         <v>-1.0357733484202214E-2</v>
       </c>
       <c r="F8" s="1">
+        <v>8.0612511427452294E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-7.316619665933255E-2</v>
+      </c>
+      <c r="H8" s="1">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="G8" s="1">
-        <v>2.5974025974025761E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>8.0612511427452294E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-7.316619665933255E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1995</v>
       </c>
@@ -673,19 +646,16 @@
         <v>0.20461741424802105</v>
       </c>
       <c r="F9" s="1">
+        <v>0.11553917273468883</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-5.2076367527083001E-2</v>
+      </c>
+      <c r="H9" s="1">
         <v>5.1399999999999994E-2</v>
       </c>
-      <c r="G9" s="1">
-        <v>2.5316455696202667E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.11553917273468883</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-5.2076367527083001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1996</v>
       </c>
@@ -702,19 +672,16 @@
         <v>0.11269302376519552</v>
       </c>
       <c r="F10" s="1">
+        <v>6.3595243899136067E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.0316396536216343E-2</v>
+      </c>
+      <c r="H10" s="1">
         <v>4.9100000000000005E-2</v>
       </c>
-      <c r="G10" s="1">
-        <v>3.378817413905133E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6.3595243899136067E-2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6.0316396536216343E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1997</v>
       </c>
@@ -731,19 +698,16 @@
         <v>0.13267716535433061</v>
       </c>
       <c r="F11" s="1">
+        <v>2.0576026891441002E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.11586633622195253</v>
+      </c>
+      <c r="H11" s="1">
         <v>5.16E-2</v>
       </c>
-      <c r="G11" s="1">
-        <v>1.6970458830924073E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.0576026891441002E-2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-0.11586633622195253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1998</v>
       </c>
@@ -760,19 +724,16 @@
         <v>2.9515699223728431E-2</v>
       </c>
       <c r="F12" s="1">
+        <v>0.20333358285300807</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.25339102624400334</v>
+      </c>
+      <c r="H12" s="1">
         <v>4.3899999999999995E-2</v>
       </c>
-      <c r="G12" s="1">
-        <v>1.606922126081578E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.20333358285300807</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-0.25339102624400334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1999</v>
       </c>
@@ -789,19 +750,16 @@
         <v>2.5124497088034214E-2</v>
       </c>
       <c r="F13" s="1">
+        <v>0.27298552647949226</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.66408809151841952</v>
+      </c>
+      <c r="H13" s="1">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="G13" s="1">
-        <v>2.6763990267639981E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.27298552647949226</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.66408809151841952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2000</v>
       </c>
@@ -818,19 +776,16 @@
         <v>-5.118564057525532E-2</v>
       </c>
       <c r="F14" s="1">
+        <v>-0.1395807203010212</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.30609772716948558</v>
+      </c>
+      <c r="H14" s="1">
         <v>5.7699999999999994E-2</v>
       </c>
-      <c r="G14" s="1">
-        <v>3.4360189573459543E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-0.1395807203010212</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-0.30609772716948558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2001</v>
       </c>
@@ -847,19 +802,16 @@
         <v>4.477741459604867E-2</v>
       </c>
       <c r="F15" s="1">
+        <v>-0.21205179659990159</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-2.3720158861781582E-2</v>
+      </c>
+      <c r="H15" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="G15" s="1">
-        <v>1.6036655211913109E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-0.21205179659990159</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-2.3720158861781582E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2002</v>
       </c>
@@ -876,19 +828,16 @@
         <v>-1.8937401367701168E-2</v>
       </c>
       <c r="F16" s="1">
+        <v>-0.15657961125393427</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-6.0014752229598289E-2</v>
+      </c>
+      <c r="H16" s="1">
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="G16" s="1">
-        <v>2.4802705749718212E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-0.15657961125393427</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-6.0014752229598289E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2003</v>
       </c>
@@ -905,19 +854,16 @@
         <v>0.28150134048257369</v>
       </c>
       <c r="F17" s="1">
+        <v>0.39166476754785773</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5628002092547677</v>
+      </c>
+      <c r="H17" s="1">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="G17" s="1">
-        <v>2.0352035203520247E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.39166476754785773</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.5628002092547677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2004</v>
       </c>
@@ -934,19 +880,16 @@
         <v>0.10867650297291331</v>
       </c>
       <c r="F18" s="1">
+        <v>0.20696784230241749</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.25950214540032257</v>
+      </c>
+      <c r="H18" s="1">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="G18" s="1">
-        <v>3.3423180592991875E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.20696784230241749</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.25950214540032257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2005</v>
       </c>
@@ -963,19 +906,16 @@
         <v>2.7391002085609406E-2</v>
       </c>
       <c r="F19" s="1">
+        <v>0.14017027338715149</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.34543411817292258</v>
+      </c>
+      <c r="H19" s="1">
         <v>3.8900000000000004E-2</v>
       </c>
-      <c r="G19" s="1">
-        <v>3.3385498174230532E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.14017027338715149</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.34543411817292258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2006</v>
       </c>
@@ -992,19 +932,16 @@
         <v>0.11766298043461454</v>
       </c>
       <c r="F20" s="1">
+        <v>0.26855969893944587</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.32551561896723569</v>
+      </c>
+      <c r="H20" s="1">
         <v>4.8499999999999995E-2</v>
       </c>
-      <c r="G20" s="1">
-        <v>2.5239777889954462E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.26855969893944587</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.32551561896723569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2007</v>
       </c>
@@ -1021,19 +958,16 @@
         <v>2.1933921466874118E-2</v>
       </c>
       <c r="F21" s="1">
+        <v>0.11631724590779036</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.39822115645152567</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.03</v>
       </c>
-      <c r="G21" s="1">
-        <v>4.1088133924175319E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.11631724590779036</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.39822115645152567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2008</v>
       </c>
@@ -1050,19 +984,16 @@
         <v>-0.26388841870070079</v>
       </c>
       <c r="F22" s="1">
+        <v>-0.43058064787193817</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.53183696605316577</v>
+      </c>
+      <c r="H22" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G22" s="1">
-        <v>-2.2228002553859039E-4</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-0.43058064787193817</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-0.53183696605316577</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2009</v>
       </c>
@@ -1079,19 +1010,16 @@
         <v>0.57510117733627664</v>
       </c>
       <c r="F23" s="1">
+        <v>0.32460201804061906</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.79021876358217602</v>
+      </c>
+      <c r="H23" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G23" s="1">
-        <v>2.8141231232083674E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.32460201804061906</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.79021876358217602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2010</v>
       </c>
@@ -1108,19 +1036,16 @@
         <v>0.15191684428742436</v>
       </c>
       <c r="F24" s="1">
+        <v>8.2093917112299408E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.19195819556521543</v>
+      </c>
+      <c r="H24" s="1">
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="G24" s="1">
-        <v>1.4377930222179369E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>8.2093917112299408E-2</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.19195819556521543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2011</v>
       </c>
@@ -1137,19 +1062,16 @@
         <v>4.3825408090844675E-2</v>
       </c>
       <c r="F25" s="1">
+        <v>-0.11733137716690467</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.18173265310081277</v>
+      </c>
+      <c r="H25" s="1">
         <v>1E-4</v>
       </c>
-      <c r="G25" s="1">
-        <v>3.0620668384193861E-2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>-0.11733137716690467</v>
-      </c>
-      <c r="I25" s="1">
-        <v>-0.18173265310081277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2012</v>
       </c>
@@ -1166,19 +1088,16 @@
         <v>0.15582428789975955</v>
       </c>
       <c r="F26" s="1">
+        <v>0.17898696526988012</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.18627392876192728</v>
+      </c>
+      <c r="H26" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="G26" s="1">
-        <v>1.7595049796895523E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.17898696526988012</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.18627392876192728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2013</v>
       </c>
@@ -1195,19 +1114,16 @@
         <v>7.4194293877894113E-2</v>
       </c>
       <c r="F27" s="1">
+        <v>0.23294007073780021</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-2.267186250999198E-2</v>
+      </c>
+      <c r="H27" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="G27" s="1">
-        <v>1.5145683134317522E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.23294007073780021</v>
-      </c>
-      <c r="I27" s="1">
-        <v>-2.267186250999198E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2014</v>
       </c>
@@ -1224,19 +1140,16 @@
         <v>2.5024692203131194E-2</v>
       </c>
       <c r="F28" s="1">
+        <v>-4.4835402916808764E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1.8162578851049438E-2</v>
+      </c>
+      <c r="H28" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G28" s="1">
-        <v>6.6759542098557834E-3</v>
-      </c>
-      <c r="H28" s="1">
-        <v>-4.4835402916808764E-2</v>
-      </c>
-      <c r="I28" s="1">
-        <v>-1.8162578851049438E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2015</v>
       </c>
@@ -1253,19 +1166,16 @@
         <v>-4.6423324238203389E-2</v>
       </c>
       <c r="F29" s="1">
+        <v>-3.9274163061284728E-3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-0.14598399533500983</v>
+      </c>
+      <c r="H29" s="1">
         <v>2.3E-3</v>
       </c>
-      <c r="G29" s="1">
-        <v>6.5851284438613877E-3</v>
-      </c>
-      <c r="H29" s="1">
-        <v>-3.9274163061284728E-3</v>
-      </c>
-      <c r="I29" s="1">
-        <v>-0.14598399533500983</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2016</v>
       </c>
@@ -1282,16 +1192,13 @@
         <v>0.17488394429326082</v>
       </c>
       <c r="F30" s="1">
+        <v>1.5117970776140188E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1160397488264342</v>
+      </c>
+      <c r="H30" s="1">
         <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>2.0916895806530222E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1.5117970776140188E-2</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.1160397488264342</v>
       </c>
     </row>
   </sheetData>
